--- a/data/trans_orig/P43A-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P43A-Estudios-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>176250</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>155310</v>
+        <v>154600</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>197954</v>
+        <v>198403</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2849644020754511</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2511082817463524</v>
+        <v>0.2499596901015578</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3200560808346217</v>
+        <v>0.320780757987772</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>221532</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>196769</v>
+        <v>197984</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>244345</v>
+        <v>247247</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3581771377537615</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3181400895198159</v>
+        <v>0.3201037200040303</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3950609342033755</v>
+        <v>0.3997526262036859</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>124415</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>104488</v>
+        <v>107409</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>144649</v>
+        <v>145641</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2011569161327484</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1689386611110105</v>
+        <v>0.1736602272435664</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2338705759429347</v>
+        <v>0.2354755836279358</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>96301</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>78552</v>
+        <v>78172</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>117227</v>
+        <v>111992</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1557015440380389</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.12700364121491</v>
+        <v>0.1263901572891519</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1895348256710454</v>
+        <v>0.1810714023601967</v>
       </c>
     </row>
     <row r="8">
@@ -773,19 +773,19 @@
         <v>101888</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>82918</v>
+        <v>85585</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>120106</v>
+        <v>122460</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2119530279757213</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1724905349913847</v>
+        <v>0.178039604751911</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2498525800112059</v>
+        <v>0.2547489936929868</v>
       </c>
     </row>
     <row r="10">
@@ -802,19 +802,19 @@
         <v>167654</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>147886</v>
+        <v>146385</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>190401</v>
+        <v>188425</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3487642742005211</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3076414125410246</v>
+        <v>0.3045180489487601</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3960843227794349</v>
+        <v>0.3919733680040546</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>127219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>109084</v>
+        <v>108227</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>149539</v>
+        <v>146321</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2646487136606773</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.226923892441443</v>
+        <v>0.2251396525468019</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3110792313447389</v>
+        <v>0.3043851836003293</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>83948</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68181</v>
+        <v>69051</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>102272</v>
+        <v>102688</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1746339841630803</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1418335202986394</v>
+        <v>0.1436431042741668</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2127532837901077</v>
+        <v>0.2136174773099428</v>
       </c>
     </row>
     <row r="13">
@@ -922,19 +922,19 @@
         <v>26010</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>17465</v>
+        <v>16841</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>36805</v>
+        <v>36700</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1545598850402971</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1037808959303992</v>
+        <v>0.1000763808334676</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.218705397995227</v>
+        <v>0.2180800123213869</v>
       </c>
     </row>
     <row r="15">
@@ -951,19 +951,19 @@
         <v>59135</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>48506</v>
+        <v>45450</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>72616</v>
+        <v>70173</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3513966987026944</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2882339278526803</v>
+        <v>0.2700768898610161</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4315064788881048</v>
+        <v>0.4169836134315876</v>
       </c>
     </row>
     <row r="16">
@@ -980,19 +980,19 @@
         <v>43654</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32858</v>
+        <v>33081</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>56099</v>
+        <v>56906</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2594051571080873</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.195252871968452</v>
+        <v>0.1965744190734767</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3333554479951831</v>
+        <v>0.3381492802987599</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>39486</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>28868</v>
+        <v>29503</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>51668</v>
+        <v>53506</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2346382591489213</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1715401032189026</v>
+        <v>0.1753146937386657</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3070229169165701</v>
+        <v>0.3179458187082954</v>
       </c>
     </row>
     <row r="18">
@@ -1071,19 +1071,19 @@
         <v>304148</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>277767</v>
+        <v>275458</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>337615</v>
+        <v>332467</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2399603057706953</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2191468051465074</v>
+        <v>0.2173252149045765</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2663642881641601</v>
+        <v>0.2623026761578416</v>
       </c>
     </row>
     <row r="20">
@@ -1100,19 +1100,19 @@
         <v>448321</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>410377</v>
+        <v>413092</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>480226</v>
+        <v>481067</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3537069799524601</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3237706923746241</v>
+        <v>0.3259122615970425</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3788783258186811</v>
+        <v>0.3795416746159089</v>
       </c>
     </row>
     <row r="21">
@@ -1129,19 +1129,19 @@
         <v>295289</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>265226</v>
+        <v>265097</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>323560</v>
+        <v>323981</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2329704129201242</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2092519939268311</v>
+        <v>0.2091503677878019</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2552754907137014</v>
+        <v>0.2556078925520705</v>
       </c>
     </row>
     <row r="22">
@@ -1158,19 +1158,19 @@
         <v>219736</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>192850</v>
+        <v>195772</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>247941</v>
+        <v>247311</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1733623013567203</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1521502973554974</v>
+        <v>0.1544559626673838</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1956148378890754</v>
+        <v>0.1951181775500997</v>
       </c>
     </row>
     <row r="23">
@@ -1337,19 +1337,19 @@
         <v>220454</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>193778</v>
+        <v>195826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>244844</v>
+        <v>245662</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2597091657318403</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2282835040726847</v>
+        <v>0.2306960255155348</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2884425739552494</v>
+        <v>0.2894062535056481</v>
       </c>
     </row>
     <row r="5">
@@ -1366,19 +1366,19 @@
         <v>329399</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>298696</v>
+        <v>300096</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>358173</v>
+        <v>359521</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3880542530363573</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3518838947500965</v>
+        <v>0.3535337497470256</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4219520420276558</v>
+        <v>0.4235395305860643</v>
       </c>
     </row>
     <row r="6">
@@ -1395,19 +1395,19 @@
         <v>195119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>171759</v>
+        <v>170830</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>220626</v>
+        <v>221009</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2298632319017063</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.202343320589092</v>
+        <v>0.2012494576613084</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2599127909268948</v>
+        <v>0.2603635983954609</v>
       </c>
     </row>
     <row r="7">
@@ -1424,19 +1424,19 @@
         <v>103876</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84569</v>
+        <v>86641</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>122698</v>
+        <v>123246</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1223733493300962</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.09962815208434546</v>
+        <v>0.1020694115774128</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1445460172364251</v>
+        <v>0.1451918379892375</v>
       </c>
     </row>
     <row r="8">
@@ -1486,19 +1486,19 @@
         <v>98399</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>80203</v>
+        <v>81642</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>117703</v>
+        <v>120380</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1505552157070424</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1227146011934698</v>
+        <v>0.1249164826700468</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1800912919272808</v>
+        <v>0.1841866367352459</v>
       </c>
     </row>
     <row r="10">
@@ -1515,19 +1515,19 @@
         <v>247837</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>222748</v>
+        <v>223090</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>272813</v>
+        <v>274783</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3792021158286183</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3408157464650473</v>
+        <v>0.341338299619527</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4174165215482872</v>
+        <v>0.4204307526778707</v>
       </c>
     </row>
     <row r="11">
@@ -1544,19 +1544,19 @@
         <v>198550</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>177643</v>
+        <v>175436</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>225447</v>
+        <v>220384</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3037917152577833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.271802894057774</v>
+        <v>0.2684253330343454</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.344945312858112</v>
+        <v>0.3371980769857135</v>
       </c>
     </row>
     <row r="12">
@@ -1573,19 +1573,19 @@
         <v>108788</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90825</v>
+        <v>88760</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>130323</v>
+        <v>131815</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.166450953206556</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1389672341600217</v>
+        <v>0.1358075060457299</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1993999059867576</v>
+        <v>0.2016826264890454</v>
       </c>
     </row>
     <row r="13">
@@ -1635,19 +1635,19 @@
         <v>21055</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12521</v>
+        <v>12726</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>31949</v>
+        <v>33182</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1319761895099791</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.07848369940879237</v>
+        <v>0.0797716917893838</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2002688315627927</v>
+        <v>0.2079943937258582</v>
       </c>
     </row>
     <row r="15">
@@ -1664,19 +1664,19 @@
         <v>59918</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>45500</v>
+        <v>47520</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>72983</v>
+        <v>74080</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3755832828182929</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.285209350855303</v>
+        <v>0.2978715200209578</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4574798049496858</v>
+        <v>0.4643542855017991</v>
       </c>
     </row>
     <row r="16">
@@ -1693,19 +1693,19 @@
         <v>49782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>38136</v>
+        <v>38628</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>63471</v>
+        <v>63823</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3120469636057451</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2390449795582858</v>
+        <v>0.2421325709132447</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3978535593291133</v>
+        <v>0.4000588342571544</v>
       </c>
     </row>
     <row r="17">
@@ -1722,19 +1722,19 @@
         <v>28779</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>19296</v>
+        <v>19604</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>40128</v>
+        <v>39151</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1803935640659829</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1209499124687226</v>
+        <v>0.1228817258066775</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.251534562497142</v>
+        <v>0.245410435884683</v>
       </c>
     </row>
     <row r="18">
@@ -1784,19 +1784,19 @@
         <v>339907</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>304975</v>
+        <v>307777</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>373854</v>
+        <v>374144</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2045224634640444</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1835036203233304</v>
+        <v>0.1851894653133684</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2249484392002266</v>
+        <v>0.2251228273665044</v>
       </c>
     </row>
     <row r="20">
@@ -1813,19 +1813,19 @@
         <v>637154</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>597103</v>
+        <v>598179</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>678370</v>
+        <v>684106</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3833759921702028</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.359277433878371</v>
+        <v>0.359924725401284</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4081757375987848</v>
+        <v>0.4116270458619808</v>
       </c>
     </row>
     <row r="21">
@@ -1842,19 +1842,19 @@
         <v>443451</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>408712</v>
+        <v>407899</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>479917</v>
+        <v>481420</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2668249762187415</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2459224227788597</v>
+        <v>0.24543315224764</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2887665849447922</v>
+        <v>0.2896709255860129</v>
       </c>
     </row>
     <row r="22">
@@ -1871,19 +1871,19 @@
         <v>241443</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>212355</v>
+        <v>212669</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>273745</v>
+        <v>273967</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1452765681470113</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1277741267617419</v>
+        <v>0.1279632895673856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1647124337827187</v>
+        <v>0.1648459274313528</v>
       </c>
     </row>
     <row r="23">
@@ -2050,19 +2050,19 @@
         <v>247413</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>221400</v>
+        <v>220018</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>274418</v>
+        <v>273790</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3845266185510507</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3440978099670339</v>
+        <v>0.3419499368164466</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.426497698432877</v>
+        <v>0.4255212898779916</v>
       </c>
     </row>
     <row r="5">
@@ -2079,19 +2079,19 @@
         <v>227054</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>201183</v>
+        <v>203442</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>250537</v>
+        <v>254321</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3528848400893765</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.312677030372121</v>
+        <v>0.3161880567231698</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3893819526542354</v>
+        <v>0.3952631399947388</v>
       </c>
     </row>
     <row r="6">
@@ -2108,19 +2108,19 @@
         <v>112106</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>94656</v>
+        <v>93424</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>133637</v>
+        <v>133312</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1742341387473417</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1471136941952732</v>
+        <v>0.1451991932986945</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2076968321324023</v>
+        <v>0.2071919240415076</v>
       </c>
     </row>
     <row r="7">
@@ -2137,19 +2137,19 @@
         <v>56849</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>43021</v>
+        <v>43154</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>72058</v>
+        <v>73619</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.08835440261223101</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06686256028376453</v>
+        <v>0.06706939448463216</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1119923433389236</v>
+        <v>0.1144183900453939</v>
       </c>
     </row>
     <row r="8">
@@ -2199,19 +2199,19 @@
         <v>148478</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>128151</v>
+        <v>125316</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>172960</v>
+        <v>172103</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1732437985502219</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1495259963827433</v>
+        <v>0.1462189408052584</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2018096785803359</v>
+        <v>0.2008097074856571</v>
       </c>
     </row>
     <row r="10">
@@ -2228,19 +2228,19 @@
         <v>379133</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>348034</v>
+        <v>349830</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>409587</v>
+        <v>408229</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4423725940085052</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4060855881639347</v>
+        <v>0.4081820856629383</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4779059227669355</v>
+        <v>0.476321736567979</v>
       </c>
     </row>
     <row r="11">
@@ -2257,19 +2257,19 @@
         <v>213459</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>187247</v>
+        <v>189044</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>239965</v>
+        <v>239099</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2490634062505979</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2184794889524095</v>
+        <v>0.2205768538994578</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2799906071684226</v>
+        <v>0.2789809088479457</v>
       </c>
     </row>
     <row r="12">
@@ -2286,19 +2286,19 @@
         <v>115976</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96751</v>
+        <v>97037</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>138294</v>
+        <v>140243</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.135320201190675</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1128885524603183</v>
+        <v>0.1132225637852825</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1613611743189665</v>
+        <v>0.1636353538147866</v>
       </c>
     </row>
     <row r="13">
@@ -2348,19 +2348,19 @@
         <v>33100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>22338</v>
+        <v>22685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>45120</v>
+        <v>45489</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.133307289162301</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08996471384288061</v>
+        <v>0.09136175870517604</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1817175323233639</v>
+        <v>0.1832022825311357</v>
       </c>
     </row>
     <row r="15">
@@ -2377,19 +2377,19 @@
         <v>96421</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>81414</v>
+        <v>79515</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>113069</v>
+        <v>112312</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3883301608676412</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.327890791483656</v>
+        <v>0.3202405017991208</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.4553765290428175</v>
+        <v>0.4523295800802322</v>
       </c>
     </row>
     <row r="16">
@@ -2406,19 +2406,19 @@
         <v>84801</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>69462</v>
+        <v>69763</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101604</v>
+        <v>101463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3415314023745786</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2797524958947966</v>
+        <v>0.280964969535402</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4092034438549</v>
+        <v>0.4086368414307163</v>
       </c>
     </row>
     <row r="17">
@@ -2435,19 +2435,19 @@
         <v>33975</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>23485</v>
+        <v>23895</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>46025</v>
+        <v>48104</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1368311475954793</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09458443445946756</v>
+        <v>0.09623662823423139</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1853622051755698</v>
+        <v>0.1937376344330128</v>
       </c>
     </row>
     <row r="18">
@@ -2497,19 +2497,19 @@
         <v>428991</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>395616</v>
+        <v>392514</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>469205</v>
+        <v>471744</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2453106980770768</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2262261817747146</v>
+        <v>0.2244525178767321</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2683064737988208</v>
+        <v>0.2697585049907668</v>
       </c>
     </row>
     <row r="20">
@@ -2526,19 +2526,19 @@
         <v>702608</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>662625</v>
+        <v>657403</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>744964</v>
+        <v>746798</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4017742120772063</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3789106846627736</v>
+        <v>0.3759242823826542</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4259944477195714</v>
+        <v>0.4270433196429589</v>
       </c>
     </row>
     <row r="21">
@@ -2555,19 +2555,19 @@
         <v>410366</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>372168</v>
+        <v>375193</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>446688</v>
+        <v>449597</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2346604761776601</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2128176441577002</v>
+        <v>0.2145477237291318</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2554305016812837</v>
+        <v>0.257094308764419</v>
       </c>
     </row>
     <row r="22">
@@ -2584,19 +2584,19 @@
         <v>206799</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>179546</v>
+        <v>181931</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>234191</v>
+        <v>236217</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1182546136680568</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1026700615567519</v>
+        <v>0.104034002296936</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1339179825329112</v>
+        <v>0.1350764083603568</v>
       </c>
     </row>
     <row r="23">
@@ -2763,19 +2763,19 @@
         <v>235427</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>220617</v>
+        <v>220207</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>251330</v>
+        <v>249617</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.5484145622972249</v>
+        <v>0.5484145622972246</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5139170292645449</v>
+        <v>0.5129613893734534</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5854600350353278</v>
+        <v>0.5814710522487913</v>
       </c>
     </row>
     <row r="5">
@@ -2792,19 +2792,19 @@
         <v>110067</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97274</v>
+        <v>98221</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>124306</v>
+        <v>124200</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2563945966308391</v>
+        <v>0.256394596630839</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2265945719193922</v>
+        <v>0.2288011017785379</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2895645792459254</v>
+        <v>0.289317142333104</v>
       </c>
     </row>
     <row r="6">
@@ -2821,19 +2821,19 @@
         <v>57989</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>47254</v>
+        <v>48151</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>70510</v>
+        <v>69620</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.13508210643505</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1100757152984996</v>
+        <v>0.1121664029885671</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1642500949114642</v>
+        <v>0.1621772553132837</v>
       </c>
     </row>
     <row r="7">
@@ -2850,19 +2850,19 @@
         <v>25804</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>19279</v>
+        <v>19095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34747</v>
+        <v>34331</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.06010873463688608</v>
+        <v>0.06010873463688606</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04490873500061322</v>
+        <v>0.04448092497080412</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.08094105981503384</v>
+        <v>0.07997217999020567</v>
       </c>
     </row>
     <row r="8">
@@ -2912,19 +2912,19 @@
         <v>184139</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>166413</v>
+        <v>166274</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>201177</v>
+        <v>203260</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2521466451280213</v>
+        <v>0.2521466451280214</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2278730557307466</v>
+        <v>0.2276834873035532</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2754767468105273</v>
+        <v>0.2783298187636242</v>
       </c>
     </row>
     <row r="10">
@@ -2941,19 +2941,19 @@
         <v>250187</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>228105</v>
+        <v>231582</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>270279</v>
+        <v>271608</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.342588021882652</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3123505914836296</v>
+        <v>0.3171112415799573</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3701000692991224</v>
+        <v>0.3719198640652004</v>
       </c>
     </row>
     <row r="11">
@@ -2970,19 +2970,19 @@
         <v>189271</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>172083</v>
+        <v>173387</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>209870</v>
+        <v>208141</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2591740684590104</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2356374723238694</v>
+        <v>0.2374230272676534</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2873804172337643</v>
+        <v>0.2850131914732341</v>
       </c>
     </row>
     <row r="12">
@@ -2999,19 +2999,19 @@
         <v>106688</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>90222</v>
+        <v>90866</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121875</v>
+        <v>123070</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1460912645303163</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1235428154378219</v>
+        <v>0.1244246877333806</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1668868731968145</v>
+        <v>0.1685231776135338</v>
       </c>
     </row>
     <row r="13">
@@ -3061,19 +3061,19 @@
         <v>60110</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49352</v>
+        <v>49511</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>71920</v>
+        <v>72326</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2014173503726532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1653686625134107</v>
+        <v>0.1659021076856627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2409920168172249</v>
+        <v>0.2423511487089299</v>
       </c>
     </row>
     <row r="15">
@@ -3090,19 +3090,19 @@
         <v>97528</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>85647</v>
+        <v>85535</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>112479</v>
+        <v>111645</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.3267989652189426</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.2869884448229773</v>
+        <v>0.2866130534857732</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.3768958228016199</v>
+        <v>0.3741000994416806</v>
       </c>
     </row>
     <row r="16">
@@ -3119,19 +3119,19 @@
         <v>93284</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>80838</v>
+        <v>81101</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106287</v>
+        <v>107303</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3125780943778026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2708729171655182</v>
+        <v>0.271755596926523</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3561482998182809</v>
+        <v>0.3595531948093854</v>
       </c>
     </row>
     <row r="17">
@@ -3148,19 +3148,19 @@
         <v>47513</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35424</v>
+        <v>37531</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>58276</v>
+        <v>59340</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1592055900306016</v>
+        <v>0.1592055900306015</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.118698626334304</v>
+        <v>0.1257588099388783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1952705938981027</v>
+        <v>0.1988381763989433</v>
       </c>
     </row>
     <row r="18">
@@ -3210,19 +3210,19 @@
         <v>479676</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>453129</v>
+        <v>453116</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>505609</v>
+        <v>508579</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3289942055942722</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3107860236084028</v>
+        <v>0.3107774380347892</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.346780534498551</v>
+        <v>0.3488179265281544</v>
       </c>
     </row>
     <row r="20">
@@ -3239,19 +3239,19 @@
         <v>457782</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>433162</v>
+        <v>430104</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>487935</v>
+        <v>485282</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3139779768263481</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2970916630484069</v>
+        <v>0.2949939883482938</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.334658645504258</v>
+        <v>0.3328392998839996</v>
       </c>
     </row>
     <row r="21">
@@ -3268,19 +3268,19 @@
         <v>340545</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>316070</v>
+        <v>315395</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>367793</v>
+        <v>364989</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2335683548989497</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2167822126030154</v>
+        <v>0.2163189061384906</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2522575065094264</v>
+        <v>0.2503341250613929</v>
       </c>
     </row>
     <row r="22">
@@ -3297,19 +3297,19 @@
         <v>180005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>159785</v>
+        <v>158796</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>202345</v>
+        <v>199456</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.12345946268043</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1095915002492199</v>
+        <v>0.1089132508473869</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1387820586849135</v>
+        <v>0.1368000482530377</v>
       </c>
     </row>
     <row r="23">
